--- a/teaching/test_excelfile.xlsx
+++ b/teaching/test_excelfile.xlsx
@@ -17,7 +17,7 @@
     <t>patid</t>
   </si>
   <si>
-    <t>eventdate</t>
+    <t>startdate</t>
   </si>
   <si>
     <t>ht</t>
@@ -53,34 +53,34 @@
     <t>1009</t>
   </si>
   <si>
-    <t>2016-11-29</t>
-  </si>
-  <si>
-    <t>2017-01-08</t>
-  </si>
-  <si>
-    <t>2017-02-18</t>
-  </si>
-  <si>
-    <t>2017-03-30</t>
-  </si>
-  <si>
-    <t>2017-05-10</t>
-  </si>
-  <si>
-    <t>2017-06-19</t>
-  </si>
-  <si>
-    <t>2017-07-30</t>
-  </si>
-  <si>
-    <t>2017-09-08</t>
-  </si>
-  <si>
-    <t>2017-10-19</t>
-  </si>
-  <si>
-    <t>2017-11-29</t>
+    <t>2016-11-30</t>
+  </si>
+  <si>
+    <t>2017-01-09</t>
+  </si>
+  <si>
+    <t>2017-02-19</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2017-05-11</t>
+  </si>
+  <si>
+    <t>2017-06-20</t>
+  </si>
+  <si>
+    <t>2017-07-31</t>
+  </si>
+  <si>
+    <t>2017-09-09</t>
+  </si>
+  <si>
+    <t>2017-10-20</t>
+  </si>
+  <si>
+    <t>2017-11-30</t>
   </si>
   <si>
     <t>1</t>
